--- a/biology/Histoire de la zoologie et de la botanique/William_Miles_Maskell/William_Miles_Maskell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Miles_Maskell/William_Miles_Maskell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Miles Maskell est un entomologiste et phycologue néo-zélandais d’origine britannique, né le 5 octobre 1839[1] à Mapperton dans le Dorset[2] et mort le 1er mai 1898 à Wellington.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Miles Maskell est un entomologiste et phycologue néo-zélandais d’origine britannique, né le 5 octobre 1839 à Mapperton dans le Dorset et mort le 1er mai 1898 à Wellington.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maskell fait ses études à l’école catholique de St. Mary à Oscott, près de Birmingham. Il complète ses études à Paris. Il passe plusieurs années dans l’armée britannique avant de partir en Nouvelle-Zélande en 1860 et s’installe à Lyttelton. Il commence à travailler dans des élevages de moutons jusqu’à ce que son expérience soit suffisante pour se mettre à son compte dans le district de Marlborough. En 1864, il retourne dans la région de Canterbury où il s’occupe d’une ferme durant huit ans.
 En 1866, il est élu au conseil de la province de Canterbury où il siège jusqu’en 1876. En 1874, il est employé comme secrétaire à la nouvelle université de Nouvelle-Zélande. Marié deux fois (1874 et 1883), il n’a aucun enfant.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1887 : An account of the insects noxious to agriculture and plants in New Zealand (State Forests and Agricultural Dept., Wellington) : 116 p. + 23 pl. — Exemplaire numérique consultable librement sur Archive.org</t>
         </is>
